--- a/assignment1/result.xlsx
+++ b/assignment1/result.xlsx
@@ -459,12 +459,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C0015967$$$C0015967$$$C0008031$$$C2363731$$$C0018681$$$C0741585$$$C0015967</t>
+          <t>C0015967$$$C0015967$$$C0008031$$$C0018681$$$C0741585$$$C2363731$$$C0917801$$$C0015967$$$C0030252</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C2363731$$$C0033774$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0010200$$$C2363731$$$C0741585$$$C0018681$$$C0741585$$$C0012833$$$C0015672</t>
+          <t>C0033774$$$C2363731$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0010200$$$C0741585$$$C2363731$$$C0018681$$$C0741585$$$C0012833$$$C0015672</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$1$$$1$$$1$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0018681$$$C0741585</t>
+          <t>C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0917801</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C2363731$$$C0741585$$$C1832070$$$C2363731$$$C0741585$$$C2363731$$$C0015967$$$C0085593$$$C0741585$$$C0015967$$$C0741585$$$C1832070$$$C0015672$$$C0003126$$$C1832070$$$C0015967$$$C0003126$$$C1832070$$$C1832070$$$C0013404$$$C1832070$$$C0003126$$$C1832070$$$C0015967$$$C0741585</t>
+          <t>C0741585$$$C2363731$$$C0741585$$$C1832070$$$C2363731$$$C0015967$$$C0085593$$$C0741585$$$C2363731$$$C0015967$$$C0741585$$$C0015672$$$C1832070$$$C0003126$$$C0003126$$$C0015967$$$C1832070$$$C1832070$$$C0013404$$$C1832070$$$C0003126$$$C1832070$$$C1832070$$$C0015967$$$C0741585</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C0010200$$$C0015967$$$C0003126$$$C0008031$$$C2363731$$$C0018681$$$C0015967$$$C0231528$$$C0741585$$$C1832070</t>
+          <t>C0003126$$$C0010200$$$C0015967$$$C0008031$$$C0015967$$$C0018681$$$C0231528$$$C0741585$$$C2363731$$$C1832070</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C0010200$$$C0015672$$$C2363731$$$C0012833$$$C0018681$$$C0741585$$$C0013404$$$C0015672$$$C0030252</t>
+          <t>C0010200$$$C0012833$$$C0015672$$$C0018681$$$C0741585$$$C2363731$$$C0015672$$$C0030252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C2364111$$$C0010200$$$C0013404$$$C0917801$$$C0015672$$$C2364111$$$C0013404$$$C0917801$$$C0008031$$$C1260880</t>
+          <t>C2364111$$$C0948596$$$C0010200$$$C0013404$$$C0917801$$$C0015672$$$C0917801$$$C0917801$$$C2364111$$$C0013404$$$C0917801$$$C0008031$$$C1260880</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C0010200$$$C0015967$$$C0010200$$$C0003126</t>
+          <t>C0010200$$$C0015967$$$C0003126$$$C0010200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C0010200$$$C0003126</t>
+          <t>C0003126$$$C0010200</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C0015672$$$C0008031$$$C0015967</t>
+          <t>C0015672$$$C0015967</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0$$$0$$$0</t>
+          <t>0$$$0</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C0015967$$$C0013404$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C1832070$$$C0015672</t>
+          <t>C0015967$$$C0013404$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0015672$$$C1832070</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>1$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -740,12 +740,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C2363731$$$C0018681$$$C0027497$$$C0741585$$$C0010200$$$C0013404$$$C0018681$$$C0015967$$$C1260880$$$C0037383$$$C0011991$$$C0010200$$$C2363731$$$C0018681$$$C0042963$$$C0741585$$$C0015672$$$C0020458$$$C0013404$$$C0043144$$$C2364111</t>
+          <t>C0018681$$$C0027497$$$C0741585$$$C2363731$$$C0010200$$$C0011991$$$C0013404$$$C0015967$$$C0018681$$$C0037383$$$C1260880$$$C0010200$$$C0018681$$$C0042963$$$C0741585$$$C2363731$$$C0015672$$$C0020458$$$C0013404$$$C0043144$$$C2364111</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C2364111$$$C0008031$$$C0010200$$$C0015672$$$C0015967$$$C2364111$$$C0741585$$$C0015967$$$C2364111$$$C0741585</t>
+          <t>C2364111$$$C0008031$$$C0010200$$$C0015672$$$C0015967$$$C0741585$$$C2364111$$$C0015967$$$C0741585$$$C2364111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$1</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C0010200$$$C0018681$$$C1260880$$$C0741585$$$C0033774$$$C0015967$$$C0085593$$$C0015967$$$C0741585$$$C0013404$$$C0015967$$$C0018681$$$C0015967$$$C0741585$$$C0010200$$$C1260880</t>
+          <t>C0010200$$$C0018681$$$C0033774$$$C0741585$$$C1260880$$$C0015967$$$C0085593$$$C0015967$$$C0741585$$$C0013404$$$C0015967$$$C0015967$$$C0018681$$$C0741585$$$C0010200$$$C1260880</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C0013404$$$C0010200$$$C1260880$$$C0037383$$$C0015672$$$C0018681$$$C0741585</t>
+          <t>C0013404$$$C0010200$$$C0037383$$$C1260880$$$C0015672$$$C0018681$$$C0741585</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C0010200$$$C0013404$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0013404</t>
+          <t>C0010200$$$C0013404$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0013404$$$C0030252$$$C0020538$$$C0013404$$$C0030252</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C0008031$$$C0013404$$$C0741585$$$C0008031$$$C0235710$$$C0015672$$$C0741585$$$C0003862</t>
+          <t>C0008031$$$C0013404$$$C0741585$$$C0008031$$$C0015672$$$C0235710$$$C0741585</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C0015967$$$C0015967$$$C0010200$$$C0003126$$$C0012833$$$C0085593$$$C1832070</t>
+          <t>C0015967$$$C0015967$$$C0010200$$$C0003126$$$C0013404$$$C0012833$$$C0085593$$$C1832070$$$C0020538</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$1$$$0$$$0$$$0</t>
+          <t>0$$$1$$$1$$$0$$$0$$$0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0$$$1$$$1</t>
+          <t>0$$$0$$$1</t>
         </is>
       </c>
     </row>
@@ -944,12 +944,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C0013404$$$C0010200$$$C0015967</t>
+          <t>C0013404$$$C0013404$$$C0010200$$$C0015967</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0$$$0$$$1</t>
+          <t>0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C2363731$$$C0015967$$$C0020458</t>
+          <t>C0015967$$$C2363731$$$C0020458$$$C0013404</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0$$$1$$$0</t>
+          <t>0$$$0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C0013404$$$C0013404</t>
+          <t>C0013404$$$C0013404$$$C0013404</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0$$$0</t>
+          <t>0$$$0$$$0</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C0008031$$$C0010200$$$C0018681$$$C0015967$$$C0085593$$$C2364111$$$C0741585</t>
+          <t>C0008031$$$C0010200$$$C0015967$$$C0018681$$$C0085593$$$C0741585$$$C2364111</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">

--- a/assignment1/result.xlsx
+++ b/assignment1/result.xlsx
@@ -459,12 +459,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C0015967$$$C0015967$$$C0008031$$$C0018681$$$C0741585$$$C2363731$$$C0917801$$$C0015967$$$C0030252</t>
+          <t>$$$C0015967$$$C0015967$$$C0008031$$$C0018681$$$C0741585$$$C2363731$$$C0917801$$$C0015967$$$C0030252$$$</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C0033774$$$C2363731$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0010200$$$C0741585$$$C2363731$$$C0018681$$$C0741585$$$C0012833$$$C0015672</t>
+          <t>$$$C0033774$$$C0741585$$$C2363731$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0010200$$$C0741585$$$C2363731$$$C0018681$$$C0741585$$$C0012833$$$C0015672$$$</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$1$$$1$$$1$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$1$$$1$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C0015967$$$C0015672$$$C0015967$$$C0231528$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0010200$$$C0015967$$$C0015672$$$C0010200$$$C0013404$$$C0010200$$$C0015672</t>
+          <t>$$$C0015967$$$C0015672$$$C0015967$$$C0231528$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0010200$$$C0015967$$$C0015672$$$C0010200$$$C0013404$$$C0010200$$$C0015672$$$</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$1$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -510,12 +510,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C0011991</t>
+          <t>$$$C0011991$$$</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -527,12 +527,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C0020538</t>
+          <t>$$$C0020538$$$</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C0015967</t>
+          <t>$$$C0015967$$$</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0917801</t>
+          <t>$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0018681$$$C0741585$$$C0018681$$$C0917801$$$</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C0741585$$$C2363731$$$C0741585$$$C1832070$$$C2363731$$$C0015967$$$C0085593$$$C0741585$$$C2363731$$$C0015967$$$C0741585$$$C0015672$$$C1832070$$$C0003126$$$C0003126$$$C0015967$$$C1832070$$$C1832070$$$C0013404$$$C1832070$$$C0003126$$$C1832070$$$C1832070$$$C0015967$$$C0741585</t>
+          <t>$$$C0741585$$$C2363731$$$C0741585$$$C1832070$$$C2363731$$$C0015967$$$C0085593$$$C0741585$$$C2363731$$$C0015967$$$C0741585$$$C0015672$$$C1832070$$$C0003126$$$C0023380$$$C0003126$$$C0015967$$$C1832070$$$C1832070$$$C0013404$$$C1832070$$$C0003126$$$C1832070$$$C1832070$$$C0015967$$$C0741585$$$</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C0003126$$$C0010200$$$C0015967$$$C0008031$$$C0015967$$$C0018681$$$C0231528$$$C0741585$$$C2363731$$$C1832070</t>
+          <t>$$$C0003126$$$C0010200$$$C0015967$$$C0008031$$$C0015967$$$C0018681$$$C0231528$$$C0741585$$$C2363731$$$C1832070$$$</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C0010200$$$C0012833$$$C0015672$$$C0018681$$$C0741585$$$C2363731$$$C0015672$$$C0030252</t>
+          <t>$$$C0010200$$$C0012833$$$C0015672$$$C0018681$$$C0741585$$$C2363731$$$C0013404$$$C0015672$$$C0030252$$$</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C1832070$$$C1832070</t>
+          <t>$$$C1832070$$$C1832070$$$</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0$$$0</t>
+          <t>$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C2364111$$$C0948596$$$C0010200$$$C0013404$$$C0917801$$$C0015672$$$C0917801$$$C0917801$$$C2364111$$$C0013404$$$C0917801$$$C0008031$$$C1260880</t>
+          <t>$$$C2364111$$$C0948596$$$C0010200$$$C0013404$$$C0917801$$$C0015672$$$C0917801$$$C0917801$$$C0917801$$$C2364111$$$C0013404$$$C0917801$$$C0008031$$$C0235710$$$C1260880$$$</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C0010200$$$C0015967$$$C0003126$$$C0010200</t>
+          <t>$$$C0010200$$$C0015967$$$C0003126$$$C0010200$$$</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C0003126$$$C0010200</t>
+          <t>$$$C0003126$$$C0010200$$$</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0$$$0</t>
+          <t>$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -695,8 +695,16 @@
           <t>g684ve</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$$$$$$</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$$$$$$</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -706,12 +714,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C0015672$$$C0015967</t>
+          <t>$$$C0015672$$$C0015967$$$</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0$$$0</t>
+          <t>$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -723,12 +731,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C0015967$$$C0013404$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0015672$$$C1832070</t>
+          <t>$$$C0015967$$$C0013404$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0015672$$$C1832070$$$C0023380$$$C0015672$$$</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -740,12 +748,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C0018681$$$C0027497$$$C0741585$$$C2363731$$$C0010200$$$C0011991$$$C0013404$$$C0015967$$$C0018681$$$C0037383$$$C1260880$$$C0010200$$$C0018681$$$C0042963$$$C0741585$$$C2363731$$$C0015672$$$C0020458$$$C0013404$$$C0043144$$$C2364111</t>
+          <t>$$$C0018681$$$C0027497$$$C0741585$$$C2363731$$$C0010200$$$C0011991$$$C0013404$$$C0015967$$$C0018681$$$C0037383$$$C1260880$$$C0010200$$$C0013404$$$C0018681$$$C0042963$$$C0741585$$$C2363731$$$C0015672$$$C0020458$$$C0013404$$$C0043144$$$C2364111$$$</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -757,12 +765,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C0013404$$$C0741585$$$C0015967$$$C0015672$$$C0013404$$$C0030252$$$C0741585</t>
+          <t>$$$C0013404$$$C0741585$$$C0015967$$$C0015672$$$C0013404$$$C0030252$$$C0741585$$$</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -774,12 +782,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C2364111$$$C0008031$$$C0010200$$$C0015672$$$C0015967$$$C0741585$$$C2364111$$$C0015967$$$C0741585$$$C2364111</t>
+          <t>$$$C2364111$$$C0008031$$$C0010200$$$C0015672$$$C0015967$$$C0235710$$$C0741585$$$C2363731$$$C2364111$$$C0015967$$$C0741585$$$C2364111$$$</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$1$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -791,12 +799,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C0010200$$$C0018681$$$C0033774$$$C0741585$$$C1260880$$$C0015967$$$C0085593$$$C0015967$$$C0741585$$$C0013404$$$C0015967$$$C0015967$$$C0018681$$$C0741585$$$C0010200$$$C1260880</t>
+          <t>$$$C0010200$$$C0018681$$$C0033774$$$C0741585$$$C1260880$$$C0015967$$$C0085593$$$C0015967$$$C0741585$$$C0013404$$$C0015967$$$C0015967$$$C0018681$$$C0741585$$$C0010200$$$C1260880$$$</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -808,12 +816,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C0003126$$$C2364111$$$C0003126</t>
+          <t>$$$C0003126$$$C2364111$$$C0003126$$$</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -825,12 +833,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C0013404$$$C0010200$$$C0037383$$$C1260880$$$C0015672$$$C0018681$$$C0741585</t>
+          <t>$$$C0013404$$$C0010200$$$C0037383$$$C1260880$$$C0015672$$$C0018681$$$C0741585$$$</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -842,12 +850,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C0010200</t>
+          <t>$$$C0010200$$$</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -859,12 +867,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C0010200$$$C0013404$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0015967$$$C0235710$$$C0013404$$$C0030252$$$C0020538$$$C0013404$$$C0030252</t>
+          <t>$$$C0010200$$$C0013404$$$C0741585$$$C0231528$$$C0741585$$$C0015967$$$C0015967$$$C0018681$$$C0235710$$$C0013404$$$C0020538$$$C0013404$$$</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -876,12 +884,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C0008031$$$C0013404$$$C0741585$$$C0008031$$$C0015672$$$C0235710$$$C0741585</t>
+          <t>$$$C0008031$$$C0013404$$$C0741585$$$C0003862$$$C0008031$$$C0015672$$$C0235710$$$C0741585$$$</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -893,12 +901,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C0015967$$$C0015967$$$C0010200$$$C0003126$$$C0013404$$$C0012833$$$C0085593$$$C1832070$$$C0020538</t>
+          <t>$$$C0015967$$$C0015967$$$C0010200$$$C0003126$$$C0013404$$$C0012833$$$C0085593$$$C1832070$$$C0020538$$$</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0$$$1$$$1$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -910,12 +918,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C0010200$$$C0010200$$$C0010200</t>
+          <t>$$$C0010200$$$C0010200$$$C0010200$$$</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -927,12 +935,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C0013404$$$C0015967$$$C0741585</t>
+          <t>$$$C0013404$$$C0015967$$$C0741585$$$</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0$$$0$$$1</t>
+          <t>$$$0$$$0$$$1$$$</t>
         </is>
       </c>
     </row>
@@ -944,12 +952,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C0013404$$$C0013404$$$C0010200$$$C0015967</t>
+          <t>$$$C0013404$$$C0013404$$$C0010200$$$C0015967$$$</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -961,12 +969,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C0015967$$$C2363731$$$C0020458$$$C0013404</t>
+          <t>$$$C0015967$$$C2363731$$$C0020458$$$C0013404$$$</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -978,12 +986,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C0013404$$$C0013404$$$C0013404</t>
+          <t>$$$C0013404$$$C0013404$$$C0013404$$$</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -995,12 +1003,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C0008031$$$C0010200$$$C0015967$$$C0018681$$$C0085593$$$C0741585$$$C2364111</t>
+          <t>$$$C0003126$$$C0008031$$$C0010200$$$C0015967$$$C0018681$$$C0085593$$$C0235710$$$C0741585$$$C2364111$$$</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0$$$0$$$0$$$0$$$0$$$0$$$0</t>
+          <t>$$$0$$$0$$$0$$$1$$$0$$$0$$$0$$$0$$$0$$$</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1020,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C0013404</t>
+          <t>$$$C0013404$$$</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$$$0$$$</t>
         </is>
       </c>
     </row>
